--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\useR2024-Data-Anonymisation-for-Open-Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32D8200-262C-428B-BCF4-53730A8797A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F98CE6-B857-4EC9-8591-98EEC920F58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6870" yWindow="0" windowWidth="20745" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -115,12 +115,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -187,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -204,6 +228,10 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -486,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB7:AB8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,6 +607,9 @@
       <c r="F9" s="3">
         <v>3.472222222222222E-3</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
@@ -591,6 +622,9 @@
       </c>
       <c r="F10" s="3">
         <v>3.472222222222222E-3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -601,9 +635,6 @@
       <c r="F11" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
@@ -616,7 +647,7 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -639,7 +670,7 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -666,7 +697,7 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -688,6 +719,9 @@
       <c r="F18" s="3">
         <v>3.472222222222222E-3</v>
       </c>
+      <c r="G18" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
@@ -697,9 +731,7 @@
       <c r="F19" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
@@ -711,6 +743,7 @@
       <c r="F20" s="3">
         <v>3.472222222222222E-3</v>
       </c>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
@@ -721,7 +754,7 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -745,6 +778,9 @@
       <c r="F23" s="3">
         <v>3.472222222222222E-3</v>
       </c>
+      <c r="G23" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
@@ -756,9 +792,7 @@
       <c r="F24" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
@@ -768,6 +802,9 @@
       <c r="F25" s="3">
         <v>3.472222222222222E-3</v>
       </c>
+      <c r="G25" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
@@ -779,9 +816,7 @@
       <c r="F26" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
@@ -791,6 +826,7 @@
       <c r="F27" s="3">
         <v>3.472222222222222E-3</v>
       </c>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
@@ -806,8 +842,8 @@
       <c r="F28" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>12</v>
+      <c r="G28" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -818,6 +854,7 @@
       <c r="F29" s="3">
         <v>3.472222222222222E-3</v>
       </c>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
@@ -829,8 +866,8 @@
       <c r="F30" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>4</v>
+      <c r="G30" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -841,6 +878,7 @@
       <c r="F31" s="3">
         <v>3.472222222222222E-3</v>
       </c>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
@@ -852,9 +890,7 @@
       <c r="F32" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
@@ -864,6 +900,9 @@
       <c r="F33" s="3">
         <v>3.472222222222222E-3</v>
       </c>
+      <c r="G33" s="10" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
@@ -877,9 +916,7 @@
       <c r="F34" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
@@ -889,6 +926,9 @@
       <c r="F35" s="3">
         <v>3.472222222222222E-3</v>
       </c>
+      <c r="G35" s="10" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
@@ -900,9 +940,7 @@
       <c r="F36" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" s="10"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
@@ -912,6 +950,7 @@
       <c r="F37" s="3">
         <v>3.472222222222222E-3</v>
       </c>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
@@ -938,6 +977,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="C28:C39"/>
     <mergeCell ref="D28:D33"/>
@@ -954,18 +1005,6 @@
     <mergeCell ref="C16:C27"/>
     <mergeCell ref="D16:D21"/>
     <mergeCell ref="D22:D27"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\useR2024-Data-Anonymisation-for-Open-Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F98CE6-B857-4EC9-8591-98EEC920F58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B25E26-1C0A-4E18-BE1F-94C137D728BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="0" windowWidth="20745" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34245" yWindow="915" windowWidth="15210" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>Schedule of the tutorial</t>
   </si>
@@ -82,18 +82,35 @@
   </si>
   <si>
     <t>Introduction of team</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[hh]:mm\ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,14 +225,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -228,13 +250,16 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální 2" xfId="1" xr:uid="{47813940-37BA-425C-B312-11452E5A77C5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -512,38 +537,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="13" max="13" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
+      <c r="L2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L3" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="M3" s="3">
+        <f>SUM(F4)</f>
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
         <v>0.125</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="10">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="8">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F4" s="3">
@@ -552,72 +597,138 @@
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
+      <c r="L4" s="12">
+        <f>M3+L3</f>
+        <v>0.37847222222222221</v>
+      </c>
+      <c r="M4" s="3">
+        <f>SUM(F5)</f>
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="3">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4">
+      <c r="L5" s="12">
+        <f t="shared" ref="L5:L14" si="0">M4+L4</f>
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="M5" s="3">
+        <f>SUM(F6:F8)</f>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="8">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F6" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="12">
+        <f t="shared" si="0"/>
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="M6" s="3">
+        <f>SUM(F9)</f>
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4">
+      <c r="L7" s="12">
+        <f t="shared" si="0"/>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="M7" s="3">
+        <f>SUM(F10:F13)</f>
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="8">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F8" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
+      <c r="L8" s="12">
+        <f t="shared" si="0"/>
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="M8" s="3">
+        <f>SUM(F14:F17)</f>
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="3">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6">
+      <c r="L9" s="12">
+        <f t="shared" si="0"/>
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="M9" s="3">
+        <f>SUM(F18:F20)</f>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="8">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F10" s="3">
@@ -626,21 +737,43 @@
       <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
+      <c r="L10" s="12">
+        <f t="shared" si="0"/>
+        <v>0.43402777777777779</v>
+      </c>
+      <c r="M10" s="3">
+        <f>SUM(F21:F22)</f>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4">
+      <c r="L11" s="12">
+        <f t="shared" si="0"/>
+        <v>0.44097222222222221</v>
+      </c>
+      <c r="M11" s="3">
+        <f>SUM(F23:F27)</f>
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="8">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F12" s="3">
@@ -649,21 +782,43 @@
       <c r="G12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
+      <c r="L12" s="12">
+        <f t="shared" si="0"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="M12" s="3">
+        <f>SUM(F28:F32)</f>
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4">
+      <c r="L13" s="12">
+        <f t="shared" si="0"/>
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="M13" s="3">
+        <f>SUM(F33:F37)</f>
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="8">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F14" s="3">
@@ -672,25 +827,40 @@
       <c r="G14" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
+      <c r="L14" s="12">
+        <f t="shared" si="0"/>
+        <v>0.49305555555555552</v>
+      </c>
+      <c r="M14" s="3">
+        <f>SUM(F38:F39)</f>
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6">
+      <c r="M15" s="13">
+        <f>SUM(M3:M14)</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="10">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="8">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F16" s="3">
@@ -701,55 +871,55 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="3">
         <v>3.472222222222222E-3</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="4">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="8">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F18" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="4">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="8">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F20" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G20" s="8"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="3">
         <v>3.472222222222222E-3</v>
       </c>
@@ -758,12 +928,12 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="8">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F22" s="3">
@@ -771,192 +941,192 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="4">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F24" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G24" s="11"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="5"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="4">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F26" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G26" s="11"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="5"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G27" s="11"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="8">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="8">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F28" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="5"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G29" s="9"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="4">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="8">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F30" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="5"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G31" s="9"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="4">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="8">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F32" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G32" s="9"/>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="8">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F34" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G34" s="10"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="5"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="4">
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="8">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F36" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G36" s="10"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="5"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="9"/>
       <c r="F37" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G37" s="10"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="4">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="8">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F38" s="3">
@@ -967,28 +1137,16 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="5"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="9"/>
       <c r="F39" s="3">
         <v>3.472222222222222E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="C28:C39"/>
     <mergeCell ref="D28:D33"/>
@@ -1005,8 +1163,21 @@
     <mergeCell ref="C16:C27"/>
     <mergeCell ref="D16:D21"/>
     <mergeCell ref="D22:D27"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\useR2024-Data-Anonymisation-for-Open-Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B25E26-1C0A-4E18-BE1F-94C137D728BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC92A85B-663F-4722-9CD7-A4636D245FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34245" yWindow="915" windowWidth="15210" windowHeight="14190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +160,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -238,6 +250,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -250,12 +268,8 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -539,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,16 +572,16 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="11" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L3" s="14">
+      <c r="L3" s="10">
         <v>0.375</v>
       </c>
       <c r="M3" s="3">
@@ -579,16 +593,16 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="10">
+      <c r="B4" s="14">
         <v>0.125</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="14">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="12">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F4" s="3">
@@ -597,7 +611,7 @@
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="8">
         <f>M3+L3</f>
         <v>0.37847222222222221</v>
       </c>
@@ -610,17 +624,17 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="3">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="8">
         <f t="shared" ref="L5:L14" si="0">M4+L4</f>
         <v>0.38194444444444442</v>
       </c>
@@ -633,10 +647,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="8">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="12">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F6" s="3">
@@ -645,7 +659,7 @@
       <c r="G6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="8">
         <f t="shared" si="0"/>
         <v>0.3923611111111111</v>
       </c>
@@ -658,14 +672,14 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="8">
         <f t="shared" si="0"/>
         <v>0.39583333333333331</v>
       </c>
@@ -673,21 +687,21 @@
         <f>SUM(F10:F13)</f>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="8">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="12">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F8" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="8">
         <f t="shared" si="0"/>
         <v>0.40972222222222221</v>
       </c>
@@ -695,22 +709,22 @@
         <f>SUM(F14:F17)</f>
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="3">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="8">
         <f t="shared" si="0"/>
         <v>0.4236111111111111</v>
       </c>
@@ -723,21 +737,21 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="12">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F10" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="8">
         <f t="shared" si="0"/>
         <v>0.43402777777777779</v>
       </c>
@@ -750,14 +764,15 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="L11" s="12">
+      <c r="G11" s="17"/>
+      <c r="L11" s="8">
         <f t="shared" si="0"/>
         <v>0.44097222222222221</v>
       </c>
@@ -770,19 +785,19 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="8">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="12">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F12" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="8">
         <f t="shared" si="0"/>
         <v>0.45833333333333331</v>
       </c>
@@ -795,14 +810,15 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="L13" s="12">
+      <c r="G13" s="17"/>
+      <c r="L13" s="8">
         <f t="shared" si="0"/>
         <v>0.47569444444444442</v>
       </c>
@@ -815,19 +831,19 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="8">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="12">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F14" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="8">
         <f t="shared" si="0"/>
         <v>0.49305555555555552</v>
       </c>
@@ -840,50 +856,52 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13"/>
       <c r="F15" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="M15" s="13">
+      <c r="G15" s="16"/>
+      <c r="M15" s="9">
         <f>SUM(M3:M14)</f>
         <v>0.125</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="14">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="12">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F16" s="3">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="3">
         <v>3.472222222222222E-3</v>
       </c>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="8">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="12">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F18" s="3">
@@ -894,20 +912,20 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="9"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="13"/>
       <c r="F19" s="3">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="8">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="12">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F20" s="3">
@@ -916,10 +934,10 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="9"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="3">
         <v>3.472222222222222E-3</v>
       </c>
@@ -928,12 +946,12 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="12">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F22" s="3">
@@ -941,10 +959,10 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="9"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="3">
         <v>3.472222222222222E-3</v>
       </c>
@@ -953,10 +971,10 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="8">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="12">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F24" s="3">
@@ -965,10 +983,10 @@
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="9"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="3">
         <v>3.472222222222222E-3</v>
       </c>
@@ -977,10 +995,10 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="8">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="12">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F26" s="3">
@@ -989,24 +1007,24 @@
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="9"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="3">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="12">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="12">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F28" s="3">
@@ -1017,20 +1035,20 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="9"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="3">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="8">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="12">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F30" s="3">
@@ -1041,20 +1059,20 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="9"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="3">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="8">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="12">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F32" s="3">
@@ -1063,10 +1081,10 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
       <c r="F33" s="3">
         <v>3.472222222222222E-3</v>
       </c>
@@ -1075,12 +1093,12 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="12">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F34" s="3">
@@ -1089,10 +1107,10 @@
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="9"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="13"/>
       <c r="F35" s="3">
         <v>3.472222222222222E-3</v>
       </c>
@@ -1101,10 +1119,10 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="8">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="12">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F36" s="3">
@@ -1113,20 +1131,20 @@
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="9"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="13"/>
       <c r="F37" s="3">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="G37" s="6"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="8">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="12">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F38" s="3">
@@ -1137,16 +1155,28 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="9"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="13"/>
       <c r="F39" s="3">
         <v>3.472222222222222E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="C28:C39"/>
     <mergeCell ref="D28:D33"/>
@@ -1163,18 +1193,6 @@
     <mergeCell ref="C16:C27"/>
     <mergeCell ref="D16:D21"/>
     <mergeCell ref="D22:D27"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
